--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Sdc2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H2">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I2">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J2">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7065936666666666</v>
+        <v>1.116695</v>
       </c>
       <c r="N2">
-        <v>2.119781</v>
+        <v>3.350085</v>
       </c>
       <c r="O2">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497491</v>
       </c>
       <c r="P2">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497492</v>
       </c>
       <c r="Q2">
-        <v>19.10551949766411</v>
+        <v>6.968297403059999</v>
       </c>
       <c r="R2">
-        <v>171.949675478977</v>
+        <v>62.71467662753999</v>
       </c>
       <c r="S2">
-        <v>0.0003681391476987063</v>
+        <v>0.0001415962350341598</v>
       </c>
       <c r="T2">
-        <v>0.0003681391476987064</v>
+        <v>0.0001415962350341598</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H3">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I3">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J3">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>335.79602</v>
       </c>
       <c r="O3">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="P3">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="Q3">
-        <v>3026.518969340704</v>
+        <v>698.4678102567199</v>
       </c>
       <c r="R3">
-        <v>27238.67072406634</v>
+        <v>6286.210292310479</v>
       </c>
       <c r="S3">
-        <v>0.05831718493722594</v>
+        <v>0.01419290918632077</v>
       </c>
       <c r="T3">
-        <v>0.05831718493722595</v>
+        <v>0.01419290918632077</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H4">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I4">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J4">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>70.689615</v>
       </c>
       <c r="O4">
-        <v>0.1730021488506163</v>
+        <v>0.172482806037502</v>
       </c>
       <c r="P4">
-        <v>0.1730021488506163</v>
+        <v>0.1724828060375021</v>
       </c>
       <c r="Q4">
-        <v>637.1232771993283</v>
+        <v>147.03694402614</v>
       </c>
       <c r="R4">
-        <v>5734.109494793955</v>
+        <v>1323.33249623526</v>
       </c>
       <c r="S4">
-        <v>0.01227655810541263</v>
+        <v>0.002987799814038828</v>
       </c>
       <c r="T4">
-        <v>0.01227655810541263</v>
+        <v>0.002987799814038829</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I5">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J5">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7065936666666666</v>
+        <v>1.116695</v>
       </c>
       <c r="N5">
-        <v>2.119781</v>
+        <v>3.350085</v>
       </c>
       <c r="O5">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497491</v>
       </c>
       <c r="P5">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497492</v>
       </c>
       <c r="Q5">
-        <v>244.1751561330663</v>
+        <v>385.892470936405</v>
       </c>
       <c r="R5">
-        <v>2197.576405197597</v>
+        <v>3473.032238427645</v>
       </c>
       <c r="S5">
-        <v>0.004704945807886345</v>
+        <v>0.007841358921998552</v>
       </c>
       <c r="T5">
-        <v>0.004704945807886346</v>
+        <v>0.007841358921998555</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I6">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J6">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>335.79602</v>
       </c>
       <c r="O6">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="P6">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="Q6">
         <v>38679.96062440519</v>
@@ -818,10 +818,10 @@
         <v>348119.6456196467</v>
       </c>
       <c r="S6">
-        <v>0.745313820910707</v>
+        <v>0.7859791967662327</v>
       </c>
       <c r="T6">
-        <v>0.7453138209107071</v>
+        <v>0.7859791967662328</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I7">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J7">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>70.689615</v>
       </c>
       <c r="O7">
-        <v>0.1730021488506163</v>
+        <v>0.172482806037502</v>
       </c>
       <c r="P7">
-        <v>0.1730021488506163</v>
+        <v>0.1724828060375021</v>
       </c>
       <c r="Q7">
         <v>8142.656142125695</v>
@@ -880,10 +880,10 @@
         <v>73283.90527913126</v>
       </c>
       <c r="S7">
-        <v>0.1568986644164419</v>
+        <v>0.1654592773833777</v>
       </c>
       <c r="T7">
-        <v>0.156898664416442</v>
+        <v>0.1654592773833777</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H8">
         <v>25.286216</v>
       </c>
       <c r="I8">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J8">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7065936666666666</v>
+        <v>1.116695</v>
       </c>
       <c r="N8">
-        <v>2.119781</v>
+        <v>3.350085</v>
       </c>
       <c r="O8">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497491</v>
       </c>
       <c r="P8">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497492</v>
       </c>
       <c r="Q8">
-        <v>5.955693359855111</v>
+        <v>9.412330325373333</v>
       </c>
       <c r="R8">
-        <v>53.601240238696</v>
+        <v>84.71097292835999</v>
       </c>
       <c r="S8">
-        <v>0.0001147586632082927</v>
+        <v>0.0001912591354647778</v>
       </c>
       <c r="T8">
-        <v>0.0001147586632082927</v>
+        <v>0.0001912591354647779</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H9">
         <v>25.286216</v>
       </c>
       <c r="I9">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J9">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>335.79602</v>
       </c>
       <c r="O9">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="P9">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="Q9">
-        <v>943.4456326289246</v>
+        <v>943.4456326289244</v>
       </c>
       <c r="R9">
         <v>8491.010693660321</v>
       </c>
       <c r="S9">
-        <v>0.01817900168265737</v>
+        <v>0.01917087371744694</v>
       </c>
       <c r="T9">
-        <v>0.01817900168265738</v>
+        <v>0.01917087371744695</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H10">
         <v>25.286216</v>
       </c>
       <c r="I10">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J10">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>70.689615</v>
       </c>
       <c r="O10">
-        <v>0.1730021488506163</v>
+        <v>0.172482806037502</v>
       </c>
       <c r="P10">
-        <v>0.1730021488506163</v>
+        <v>0.1724828060375021</v>
       </c>
       <c r="Q10">
-        <v>198.6080970940934</v>
+        <v>198.6080970940933</v>
       </c>
       <c r="R10">
         <v>1787.47287384684</v>
       </c>
       <c r="S10">
-        <v>0.003826926328761734</v>
+        <v>0.004035728840085548</v>
       </c>
       <c r="T10">
-        <v>0.003826926328761736</v>
+        <v>0.004035728840085549</v>
       </c>
     </row>
   </sheetData>
